--- a/mc_test.xlsx
+++ b/mc_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\xlladdins\xll_mc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82B5422-47A9-4E1A-9302-9C0C7F92462B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD75A12-4EA1-42FE-A77A-3DB0C16219CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1740" yWindow="972" windowWidth="19716" windowHeight="11892" xr2:uid="{620D53DE-6792-4BEE-B9E0-D39E5BD2FBFB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -652,88 +652,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1588F93E-CA63-4FCE-BCE9-C3A9E3BD6652}">
-  <dimension ref="B4:D13"/>
+  <dimension ref="B4:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" cm="1">
-        <f t="array" aca="1" ref="B4" ca="1">_xll.MC.COUNT(10000)</f>
-        <v>0</v>
+        <f t="array" aca="1" ref="B4" ca="1">_xll.MC.COUNT(3)</f>
+        <v>3</v>
       </c>
       <c r="C4">
         <f ca="1">RAND()</f>
-        <v>0.61203694328187708</v>
-      </c>
-      <c r="D4" s="1" cm="1">
-        <f t="array" aca="1" ref="D4:D13" ca="1">_xll.MC.BUFFER(C4)</f>
-        <v>0.61203694328187708</v>
+        <v>0.79130568377365851</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="array" aca="1" ref="D4:D9" ca="1">_xll.MC.BUFFER(C4)</f>
+        <v>0.81025834190119295</v>
+      </c>
+      <c r="E4">
+        <f t="array" aca="1" ref="E4:F8" ca="1">_xll.MC.BUFFER(B4:C4)</f>
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <f ca="1"/>
+        <v>0.81025834190119295</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" cm="1">
         <f t="array" aca="1" ref="B5" ca="1">_xll.MC.ELAPSED()</f>
-        <v>2.9537870000000002</v>
-      </c>
-      <c r="D5" t="str">
-        <f ca="1"/>
-        <v/>
+        <v>4.8510000000000003E-3</v>
+      </c>
+      <c r="D5">
+        <f ca="1"/>
+        <v>0.10656961966462297</v>
+      </c>
+      <c r="E5">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <f ca="1"/>
+        <v>0.10656961966462297</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6">
         <f ca="1">B4/B5</f>
+        <v>618.42918985776123</v>
+      </c>
+      <c r="D6">
+        <f ca="1"/>
+        <v>0.98657691062323272</v>
+      </c>
+      <c r="E6">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f ca="1"/>
+        <v>0.98657691062323272</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D7" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="b" cm="1">
+        <f t="array" aca="1" ref="B8" ca="1">_xll.MC.PAUSE(B4=C8)</f>
         <v>0</v>
       </c>
-      <c r="D6" t="str">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="str">
         <f ca="1"/>
         <v/>
       </c>
+      <c r="E8" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D7" t="str">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D9" t="str">
         <f ca="1"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D8" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D9" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D10" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D11" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D12" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D13" t="str">
-        <f ca="1"/>
-        <v/>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B10" t="str" cm="1">
+        <f t="array" aca="1" ref="B10:C10" ca="1">_xll.MC.STATE()</f>
+        <v>STOP</v>
+      </c>
+      <c r="C10" t="str">
+        <f ca="1"/>
+        <v>HALT</v>
       </c>
     </row>
   </sheetData>

--- a/mc_test.xlsx
+++ b/mc_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\xlladdins\xll_mc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD75A12-4EA1-42FE-A77A-3DB0C16219CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9942172-38D7-48B5-891D-EAF5C422F984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1740" yWindow="972" windowWidth="19716" windowHeight="11892" xr2:uid="{620D53DE-6792-4BEE-B9E0-D39E5BD2FBFB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -55,6 +55,14 @@
     </bk>
   </cellMetadata>
 </metadata>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>=MC.PAUSE(B4=C8)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -652,121 +660,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1588F93E-CA63-4FCE-BCE9-C3A9E3BD6652}">
-  <dimension ref="B4:F10"/>
+  <dimension ref="A4:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>100</v>
+      </c>
       <c r="B4" cm="1">
-        <f t="array" aca="1" ref="B4" ca="1">_xll.MC.COUNT(3)</f>
-        <v>3</v>
+        <f t="array" aca="1" ref="B4" ca="1">_xll.MC.COUNT(A4)</f>
+        <v>100</v>
       </c>
       <c r="C4">
         <f ca="1">RAND()</f>
-        <v>0.79130568377365851</v>
+        <v>0.57125917389389647</v>
       </c>
       <c r="D4" s="1">
         <f t="array" aca="1" ref="D4:D9" ca="1">_xll.MC.BUFFER(C4)</f>
-        <v>0.81025834190119295</v>
+        <v>0.57125917389389647</v>
       </c>
       <c r="E4">
         <f t="array" aca="1" ref="E4:F8" ca="1">_xll.MC.BUFFER(B4:C4)</f>
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="F4">
         <f ca="1"/>
-        <v>0.81025834190119295</v>
+        <v>0.57125917389389647</v>
+      </c>
+      <c r="H4" cm="1">
+        <f t="array" aca="1" ref="H4" ca="1">_xll.MC.MEAN(C4)</f>
+        <v>0.46240193479385844</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" cm="1">
         <f t="array" aca="1" ref="B5" ca="1">_xll.MC.ELAPSED()</f>
-        <v>4.8510000000000003E-3</v>
+        <v>6.6653199999999996E-2</v>
       </c>
       <c r="D5">
         <f ca="1"/>
-        <v>0.10656961966462297</v>
+        <v>0.81398054262391994</v>
       </c>
       <c r="E5">
         <f ca="1"/>
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="F5">
         <f ca="1"/>
-        <v>0.10656961966462297</v>
+        <v>0.81398054262391994</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6">
         <f ca="1">B4/B5</f>
-        <v>618.42918985776123</v>
+        <v>1500.3030612183661</v>
       </c>
       <c r="D6">
         <f ca="1"/>
-        <v>0.98657691062323272</v>
+        <v>0.21169557070081413</v>
       </c>
       <c r="E6">
         <f ca="1"/>
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="F6">
         <f ca="1"/>
-        <v>0.98657691062323272</v>
+        <v>0.21169557070081413</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="D7" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="E7" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="F7" t="str">
-        <f ca="1"/>
-        <v/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <f ca="1"/>
+        <v>0.84268935479774099</v>
+      </c>
+      <c r="E7">
+        <f ca="1"/>
+        <v>97</v>
+      </c>
+      <c r="F7">
+        <f ca="1"/>
+        <v>0.84268935479774099</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="1" t="b" cm="1">
-        <f t="array" aca="1" ref="B8" ca="1">_xll.MC.PAUSE(B4=C8)</f>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="E8" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-      <c r="F8" t="str">
-        <f ca="1"/>
-        <v/>
+      <c r="D8">
+        <f ca="1"/>
+        <v>0.19568490583631748</v>
+      </c>
+      <c r="E8">
+        <f ca="1"/>
+        <v>96</v>
+      </c>
+      <c r="F8">
+        <f ca="1"/>
+        <v>0.19568490583631748</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="D9" t="str">
-        <f ca="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B10" t="str" cm="1">
-        <f t="array" aca="1" ref="B10:C10" ca="1">_xll.MC.STATE()</f>
-        <v>STOP</v>
-      </c>
-      <c r="C10" t="str">
-        <f ca="1"/>
-        <v>HALT</v>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D9">
+        <f ca="1"/>
+        <v>0.85006741894627291</v>
       </c>
     </row>
   </sheetData>

--- a/mc_test.xlsx
+++ b/mc_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\xlladdins\xll_mc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9942172-38D7-48B5-891D-EAF5C422F984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B39E1E7-AD47-4BB7-B72A-6D2482A1F58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="972" windowWidth="19716" windowHeight="11892" xr2:uid="{620D53DE-6792-4BEE-B9E0-D39E5BD2FBFB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{620D53DE-6792-4BEE-B9E0-D39E5BD2FBFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,16 +58,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>=MC.PAUSE(B4=C8)</t>
+  </si>
+  <si>
+    <t>=MC.COUNT(A4)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -81,16 +84,28 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -98,15 +113,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -660,94 +693,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1588F93E-CA63-4FCE-BCE9-C3A9E3BD6652}">
-  <dimension ref="A4:H9"/>
+  <dimension ref="A4:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
         <v>100</v>
       </c>
-      <c r="B4" cm="1">
-        <f t="array" aca="1" ref="B4" ca="1">_xll.MC.COUNT(A4)</f>
-        <v>100</v>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C4">
         <f ca="1">RAND()</f>
-        <v>0.57125917389389647</v>
+        <v>0.92640505338386081</v>
       </c>
       <c r="D4" s="1">
         <f t="array" aca="1" ref="D4:D9" ca="1">_xll.MC.BUFFER(C4)</f>
-        <v>0.57125917389389647</v>
-      </c>
-      <c r="E4">
+        <v>0.92640505338386081</v>
+      </c>
+      <c r="E4" t="str">
         <f t="array" aca="1" ref="E4:F8" ca="1">_xll.MC.BUFFER(B4:C4)</f>
-        <v>100</v>
+        <v>=MC.COUNT(A4)</v>
       </c>
       <c r="F4">
         <f ca="1"/>
-        <v>0.57125917389389647</v>
+        <v>0.92640505338386081</v>
       </c>
       <c r="H4" cm="1">
         <f t="array" aca="1" ref="H4" ca="1">_xll.MC.MEAN(C4)</f>
-        <v>0.46240193479385844</v>
+        <v>0.56789349607952111</v>
+      </c>
+      <c r="J4" cm="1">
+        <f t="array" ref="J4:J13">_xlfn.SEQUENCE(10,1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="K4" cm="1">
+        <f t="array" aca="1" ref="K4" ca="1">_xll.MONTE.RANGE(J4:J15)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" cm="1">
         <f t="array" aca="1" ref="B5" ca="1">_xll.MC.ELAPSED()</f>
-        <v>6.6653199999999996E-2</v>
+        <v>150.75880549999999</v>
       </c>
       <c r="D5">
         <f ca="1"/>
-        <v>0.81398054262391994</v>
-      </c>
-      <c r="E5">
-        <f ca="1"/>
-        <v>99</v>
+        <v>0.73395230953633506</v>
+      </c>
+      <c r="E5" t="str">
+        <f ca="1"/>
+        <v>=MC.COUNT(A4)</v>
       </c>
       <c r="F5">
         <f ca="1"/>
-        <v>0.81398054262391994</v>
+        <v>0.73395230953633506</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B6" t="e">
         <f ca="1">B4/B5</f>
-        <v>1500.3030612183661</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D6">
         <f ca="1"/>
-        <v>0.21169557070081413</v>
-      </c>
-      <c r="E6">
-        <f ca="1"/>
-        <v>98</v>
+        <v>0.42390413342246591</v>
+      </c>
+      <c r="E6" t="str">
+        <f ca="1"/>
+        <v>=MC.COUNT(A4)</v>
       </c>
       <c r="F6">
         <f ca="1"/>
-        <v>0.21169557070081413</v>
+        <v>0.42390413342246591</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D7">
         <f ca="1"/>
-        <v>0.84268935479774099</v>
-      </c>
-      <c r="E7">
-        <f ca="1"/>
-        <v>97</v>
+        <v>0.47113404909826895</v>
+      </c>
+      <c r="E7" t="str">
+        <f ca="1"/>
+        <v>=MC.COUNT(A4)</v>
       </c>
       <c r="F7">
         <f ca="1"/>
-        <v>0.84268935479774099</v>
+        <v>0.47113404909826895</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,21 +805,47 @@
       </c>
       <c r="D8">
         <f ca="1"/>
-        <v>0.19568490583631748</v>
-      </c>
-      <c r="E8">
-        <f ca="1"/>
-        <v>96</v>
+        <v>0.86097174776963348</v>
+      </c>
+      <c r="E8" t="str">
+        <f ca="1"/>
+        <v>=MC.COUNT(A4)</v>
       </c>
       <c r="F8">
         <f ca="1"/>
-        <v>0.19568490583631748</v>
+        <v>0.86097174776963348</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D9">
         <f ca="1"/>
-        <v>0.85006741894627291</v>
+        <v>0.56664910168791738</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J13">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/mc_test.xlsx
+++ b/mc_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\xlladdins\xll_mc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\source\repos\keithalewis\xll_mc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B39E1E7-AD47-4BB7-B72A-6D2482A1F58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF567DD-F191-45C0-85EA-606F65B1DE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{620D53DE-6792-4BEE-B9E0-D39E5BD2FBFB}"/>
+    <workbookView xWindow="2220" yWindow="480" windowWidth="35085" windowHeight="17685" xr2:uid="{620D53DE-6792-4BEE-B9E0-D39E5BD2FBFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,12 +58,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>=MC.PAUSE(B4=C8)</t>
   </si>
   <si>
-    <t>=MC.COUNT(A4)</t>
+    <t>``</t>
+  </si>
+  <si>
+    <t>=MC.RANGE(J4:J15)</t>
   </si>
 </sst>
 </file>
@@ -214,7 +217,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="36576" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -282,7 +285,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="36576" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -350,7 +353,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="36576" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -693,110 +696,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1588F93E-CA63-4FCE-BCE9-C3A9E3BD6652}">
-  <dimension ref="A4:K13"/>
+  <dimension ref="A4:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>100</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>10000</v>
+      </c>
+      <c r="B4" s="1" cm="1">
+        <f t="array" aca="1" ref="B4" ca="1">_xll.MC.COUNT(A4)</f>
+        <v>5552</v>
       </c>
       <c r="C4">
         <f ca="1">RAND()</f>
-        <v>0.92640505338386081</v>
+        <v>0.69667592783317001</v>
       </c>
       <c r="D4" s="1">
         <f t="array" aca="1" ref="D4:D9" ca="1">_xll.MC.BUFFER(C4)</f>
-        <v>0.92640505338386081</v>
-      </c>
-      <c r="E4" t="str">
+        <v>0.69667592783317001</v>
+      </c>
+      <c r="E4">
         <f t="array" aca="1" ref="E4:F8" ca="1">_xll.MC.BUFFER(B4:C4)</f>
-        <v>=MC.COUNT(A4)</v>
+        <v>5552</v>
       </c>
       <c r="F4">
         <f ca="1"/>
-        <v>0.92640505338386081</v>
+        <v>0.69667592783317001</v>
       </c>
       <c r="H4" cm="1">
         <f t="array" aca="1" ref="H4" ca="1">_xll.MC.MEAN(C4)</f>
-        <v>0.56789349607952111</v>
+        <v>0.50187748106292995</v>
       </c>
       <c r="J4" cm="1">
         <f t="array" ref="J4:J13">_xlfn.SEQUENCE(10,1,1)</f>
         <v>1</v>
       </c>
-      <c r="K4" cm="1">
-        <f t="array" aca="1" ref="K4" ca="1">_xll.MONTE.RANGE(J4:J15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" cm="1">
         <f t="array" aca="1" ref="B5" ca="1">_xll.MC.ELAPSED()</f>
-        <v>150.75880549999999</v>
+        <v>7.1865098999999999</v>
       </c>
       <c r="D5">
         <f ca="1"/>
-        <v>0.73395230953633506</v>
-      </c>
-      <c r="E5" t="str">
-        <f ca="1"/>
-        <v>=MC.COUNT(A4)</v>
+        <v>0.90069786857902356</v>
+      </c>
+      <c r="E5">
+        <f ca="1"/>
+        <v>5551</v>
       </c>
       <c r="F5">
         <f ca="1"/>
-        <v>0.73395230953633506</v>
+        <v>0.90069786857902356</v>
       </c>
       <c r="J5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B6" t="e">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6">
         <f ca="1">B4/B5</f>
-        <v>#VALUE!</v>
+        <v>772.5585962109368</v>
       </c>
       <c r="D6">
         <f ca="1"/>
-        <v>0.42390413342246591</v>
-      </c>
-      <c r="E6" t="str">
-        <f ca="1"/>
-        <v>=MC.COUNT(A4)</v>
+        <v>0.30536241794000785</v>
+      </c>
+      <c r="E6">
+        <f ca="1"/>
+        <v>5550</v>
       </c>
       <c r="F6">
         <f ca="1"/>
-        <v>0.42390413342246591</v>
+        <v>0.30536241794000785</v>
       </c>
       <c r="J6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D7">
         <f ca="1"/>
-        <v>0.47113404909826895</v>
-      </c>
-      <c r="E7" t="str">
-        <f ca="1"/>
-        <v>=MC.COUNT(A4)</v>
+        <v>0.6413241910965588</v>
+      </c>
+      <c r="E7">
+        <f ca="1"/>
+        <v>5549</v>
       </c>
       <c r="F7">
         <f ca="1"/>
-        <v>0.47113404909826895</v>
+        <v>0.6413241910965588</v>
       </c>
       <c r="J7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
@@ -805,47 +806,60 @@
       </c>
       <c r="D8">
         <f ca="1"/>
-        <v>0.86097174776963348</v>
-      </c>
-      <c r="E8" t="str">
-        <f ca="1"/>
-        <v>=MC.COUNT(A4)</v>
+        <v>0.51511967097197187</v>
+      </c>
+      <c r="E8">
+        <f ca="1"/>
+        <v>5548</v>
       </c>
       <c r="F8">
         <f ca="1"/>
-        <v>0.86097174776963348</v>
+        <v>0.51511967097197187</v>
       </c>
       <c r="J8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D9">
         <f ca="1"/>
-        <v>0.56664910168791738</v>
+        <v>0.52241809773075787</v>
       </c>
       <c r="J9">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J10">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B11" t="str" cm="1">
+        <f t="array" aca="1" ref="B11:C11" ca="1">_xll.MC.STATE()</f>
+        <v>NEXT</v>
+      </c>
+      <c r="C11" t="str">
+        <f ca="1"/>
+        <v>HALT</v>
+      </c>
       <c r="J11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J12">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J13">
         <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/mc_test.xlsx
+++ b/mc_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\source\repos\keithalewis\xll_mc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF567DD-F191-45C0-85EA-606F65B1DE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CF8291-6B95-46F6-B8A7-34E8CBA7B87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="480" windowWidth="35085" windowHeight="17685" xr2:uid="{620D53DE-6792-4BEE-B9E0-D39E5BD2FBFB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -698,7 +698,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1588F93E-CA63-4FCE-BCE9-C3A9E3BD6652}">
   <dimension ref="A4:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -708,27 +710,27 @@
       </c>
       <c r="B4" s="1" cm="1">
         <f t="array" aca="1" ref="B4" ca="1">_xll.MC.COUNT(A4)</f>
-        <v>5552</v>
+        <v>10000</v>
       </c>
       <c r="C4">
         <f ca="1">RAND()</f>
-        <v>0.69667592783317001</v>
+        <v>0.59347611813352763</v>
       </c>
       <c r="D4" s="1">
         <f t="array" aca="1" ref="D4:D9" ca="1">_xll.MC.BUFFER(C4)</f>
-        <v>0.69667592783317001</v>
+        <v>0.59347611813352763</v>
       </c>
       <c r="E4">
         <f t="array" aca="1" ref="E4:F8" ca="1">_xll.MC.BUFFER(B4:C4)</f>
-        <v>5552</v>
+        <v>10000</v>
       </c>
       <c r="F4">
         <f ca="1"/>
-        <v>0.69667592783317001</v>
+        <v>0.59347611813352763</v>
       </c>
       <c r="H4" cm="1">
         <f t="array" aca="1" ref="H4" ca="1">_xll.MC.MEAN(C4)</f>
-        <v>0.50187748106292995</v>
+        <v>0.4983701709067806</v>
       </c>
       <c r="J4" cm="1">
         <f t="array" ref="J4:J13">_xlfn.SEQUENCE(10,1,1)</f>
@@ -741,19 +743,19 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" cm="1">
         <f t="array" aca="1" ref="B5" ca="1">_xll.MC.ELAPSED()</f>
-        <v>7.1865098999999999</v>
+        <v>11.956371900000001</v>
       </c>
       <c r="D5">
         <f ca="1"/>
-        <v>0.90069786857902356</v>
+        <v>0.6260703730737095</v>
       </c>
       <c r="E5">
         <f ca="1"/>
-        <v>5551</v>
+        <v>9999</v>
       </c>
       <c r="F5">
         <f ca="1"/>
-        <v>0.90069786857902356</v>
+        <v>0.6260703730737095</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -762,19 +764,19 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6">
         <f ca="1">B4/B5</f>
-        <v>772.5585962109368</v>
+        <v>836.3741178040807</v>
       </c>
       <c r="D6">
         <f ca="1"/>
-        <v>0.30536241794000785</v>
+        <v>0.18719230648927521</v>
       </c>
       <c r="E6">
         <f ca="1"/>
-        <v>5550</v>
+        <v>9998</v>
       </c>
       <c r="F6">
         <f ca="1"/>
-        <v>0.30536241794000785</v>
+        <v>0.18719230648927521</v>
       </c>
       <c r="J6">
         <v>3</v>
@@ -783,15 +785,15 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D7">
         <f ca="1"/>
-        <v>0.6413241910965588</v>
+        <v>0.90282046298070495</v>
       </c>
       <c r="E7">
         <f ca="1"/>
-        <v>5549</v>
+        <v>9997</v>
       </c>
       <c r="F7">
         <f ca="1"/>
-        <v>0.6413241910965588</v>
+        <v>0.90282046298070495</v>
       </c>
       <c r="J7">
         <v>4</v>
@@ -806,15 +808,15 @@
       </c>
       <c r="D8">
         <f ca="1"/>
-        <v>0.51511967097197187</v>
+        <v>0.19526848017678511</v>
       </c>
       <c r="E8">
         <f ca="1"/>
-        <v>5548</v>
+        <v>9996</v>
       </c>
       <c r="F8">
         <f ca="1"/>
-        <v>0.51511967097197187</v>
+        <v>0.19526848017678511</v>
       </c>
       <c r="J8">
         <v>5</v>
@@ -823,7 +825,7 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D9">
         <f ca="1"/>
-        <v>0.52241809773075787</v>
+        <v>0.65010290437003748</v>
       </c>
       <c r="J9">
         <v>6</v>
@@ -841,7 +843,7 @@
       </c>
       <c r="C11" t="str">
         <f ca="1"/>
-        <v>HALT</v>
+        <v>NEXT</v>
       </c>
       <c r="J11">
         <v>8</v>

--- a/mc_test.xlsx
+++ b/mc_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\source\repos\keithalewis\xll_mc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CF8291-6B95-46F6-B8A7-34E8CBA7B87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D9E9CC-8209-4297-B21E-9FB2C6D891E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="480" windowWidth="35085" windowHeight="17685" xr2:uid="{620D53DE-6792-4BEE-B9E0-D39E5BD2FBFB}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -714,11 +715,11 @@
       </c>
       <c r="C4">
         <f ca="1">RAND()</f>
-        <v>0.59347611813352763</v>
+        <v>0.19015977587149113</v>
       </c>
       <c r="D4" s="1">
         <f t="array" aca="1" ref="D4:D9" ca="1">_xll.MC.BUFFER(C4)</f>
-        <v>0.59347611813352763</v>
+        <v>0.19015977587149113</v>
       </c>
       <c r="E4">
         <f t="array" aca="1" ref="E4:F8" ca="1">_xll.MC.BUFFER(B4:C4)</f>
@@ -726,11 +727,11 @@
       </c>
       <c r="F4">
         <f ca="1"/>
-        <v>0.59347611813352763</v>
+        <v>0.19015977587149113</v>
       </c>
       <c r="H4" cm="1">
         <f t="array" aca="1" ref="H4" ca="1">_xll.MC.MEAN(C4)</f>
-        <v>0.4983701709067806</v>
+        <v>0.49749819587232363</v>
       </c>
       <c r="J4" cm="1">
         <f t="array" ref="J4:J13">_xlfn.SEQUENCE(10,1,1)</f>
@@ -743,11 +744,11 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" cm="1">
         <f t="array" aca="1" ref="B5" ca="1">_xll.MC.ELAPSED()</f>
-        <v>11.956371900000001</v>
+        <v>2.5501716000000001</v>
       </c>
       <c r="D5">
         <f ca="1"/>
-        <v>0.6260703730737095</v>
+        <v>0.2155846039263678</v>
       </c>
       <c r="E5">
         <f ca="1"/>
@@ -755,7 +756,7 @@
       </c>
       <c r="F5">
         <f ca="1"/>
-        <v>0.6260703730737095</v>
+        <v>0.2155846039263678</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -764,11 +765,11 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6">
         <f ca="1">B4/B5</f>
-        <v>836.3741178040807</v>
+        <v>3921.3047467080255</v>
       </c>
       <c r="D6">
         <f ca="1"/>
-        <v>0.18719230648927521</v>
+        <v>0.22924146461296435</v>
       </c>
       <c r="E6">
         <f ca="1"/>
@@ -776,7 +777,7 @@
       </c>
       <c r="F6">
         <f ca="1"/>
-        <v>0.18719230648927521</v>
+        <v>0.22924146461296435</v>
       </c>
       <c r="J6">
         <v>3</v>
@@ -785,7 +786,7 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D7">
         <f ca="1"/>
-        <v>0.90282046298070495</v>
+        <v>0.64230916169074481</v>
       </c>
       <c r="E7">
         <f ca="1"/>
@@ -793,7 +794,7 @@
       </c>
       <c r="F7">
         <f ca="1"/>
-        <v>0.90282046298070495</v>
+        <v>0.64230916169074481</v>
       </c>
       <c r="J7">
         <v>4</v>
@@ -808,7 +809,7 @@
       </c>
       <c r="D8">
         <f ca="1"/>
-        <v>0.19526848017678511</v>
+        <v>0.84458888972256274</v>
       </c>
       <c r="E8">
         <f ca="1"/>
@@ -816,7 +817,7 @@
       </c>
       <c r="F8">
         <f ca="1"/>
-        <v>0.19526848017678511</v>
+        <v>0.84458888972256274</v>
       </c>
       <c r="J8">
         <v>5</v>
@@ -825,7 +826,7 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D9">
         <f ca="1"/>
-        <v>0.65010290437003748</v>
+        <v>0.8350651453469965</v>
       </c>
       <c r="J9">
         <v>6</v>
